--- a/public/download/format-import-classroom.xlsx
+++ b/public/download/format-import-classroom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data_center\server6\dian-consumer\public\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shellrean.server\dian.consumer.hsv\public\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DBBE445-DCFA-4B95-A51A-4FF78D34724A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E61AB5E-76FF-4D58-B18E-ABE6B844EBAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4BDBE86A-6977-417E-9734-DF8F2737CD23}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>GRUP</t>
   </si>
   <si>
-    <t>ID Guru</t>
+    <t>NIP GURU</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
